--- a/src/main/webapp/assets/excel/plan/Mining_Report_6_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_6_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\tdr-mr\src\main\webapp\assets\excel\plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Д/д</t>
   </si>
@@ -111,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,6 +342,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,22 +387,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +676,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -684,7 +692,9 @@
     <col min="20" max="20" width="16.140625" style="1" customWidth="1"/>
     <col min="21" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="18.28515625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,144 +706,148 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:103" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:103" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="26" t="s">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="AA4" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:103" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="22"/>
+      <c r="W5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="12" t="s">
+      <c r="X5" s="22"/>
+      <c r="Y5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="26"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:103" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
       <c r="U6" s="8" t="s">
         <v>18</v>
       </c>
@@ -846,8 +860,9 @@
       <c r="X6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="26"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:103" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -928,7 +943,7 @@
       <c r="Z7" s="11">
         <v>26</v>
       </c>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="11"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -64636,7 +64651,19 @@
       <c r="Q3102" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M5:M6"/>
@@ -64653,17 +64680,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
